--- a/TestOPS_in.xlsx
+++ b/TestOPS_in.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Vinz\GOs\GopherPatBot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vinzenzfrauchiger/GolandProjects/GopherPatBot/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04A927F-C211-2842-A9E1-DDFF0306874F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28755" windowHeight="12990"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28760" windowHeight="13000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>publno</t>
   </si>
@@ -36,16 +37,45 @@
   </si>
   <si>
     <t>US-11039767-B2</t>
+  </si>
+  <si>
+    <t>US-11039765-B2</t>
+  </si>
+  <si>
+    <t>US-9519221-B2</t>
+  </si>
+  <si>
+    <t>US-11039768-B2</t>
+  </si>
+  <si>
+    <t>US-11039763-B2</t>
+  </si>
+  <si>
+    <t>US-9519222-B2</t>
+  </si>
+  <si>
+    <t>US-11039769-B2</t>
+  </si>
+  <si>
+    <t>US-11039761-B2</t>
+  </si>
+  <si>
+    <t>US-9519211-B2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -351,39 +381,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>